--- a/beta_meta_script/output/meta_output.xlsx
+++ b/beta_meta_script/output/meta_output.xlsx
@@ -46,13 +46,13 @@
     <t>Q_HET</t>
   </si>
   <si>
-    <t>endometriosis</t>
-  </si>
-  <si>
-    <t>polycystic ovary syndrome</t>
-  </si>
-  <si>
-    <t>recurrent spontaneous abortion</t>
+    <t>Endometriosis</t>
+  </si>
+  <si>
+    <t>Polycystic ovary syndrome</t>
+  </si>
+  <si>
+    <t>Recurrent spontaneous abortion</t>
   </si>
   <si>
     <t>DNA damage-related male infertility</t>
@@ -64,10 +64,10 @@
     <t>Male infertility due to oxidative stress</t>
   </si>
   <si>
-    <t>oligoasthenoteratozoospermia</t>
-  </si>
-  <si>
-    <t>non-obstructive azoospermia</t>
+    <t>Oligoasthenoteratozoospermia</t>
+  </si>
+  <si>
+    <t>Non-obstructive azoospermia</t>
   </si>
   <si>
     <t>rs10965235</t>
